--- a/ddt/my1.xlsx
+++ b/ddt/my1.xlsx
@@ -11,105 +11,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>payment_plans</t>
-  </si>
-  <si>
-    <t>Property</t>
-  </si>
-  <si>
-    <t>AccountNumber</t>
-  </si>
-  <si>
-    <t>AccountName</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>OriginalCharge</t>
-  </si>
-  <si>
-    <t>OriginalChargeDate</t>
-  </si>
-  <si>
-    <t>TotalOutstandingBalance</t>
-  </si>
-  <si>
-    <t>Month0</t>
-  </si>
-  <si>
-    <t>Month1</t>
-  </si>
-  <si>
-    <t>Month2</t>
-  </si>
-  <si>
-    <t>Month3</t>
-  </si>
-  <si>
-    <t>Month4</t>
-  </si>
-  <si>
-    <t>Month5</t>
-  </si>
-  <si>
-    <t>Month6</t>
-  </si>
-  <si>
-    <t>Month7</t>
-  </si>
-  <si>
-    <t>Month8</t>
-  </si>
-  <si>
-    <t>Month9</t>
-  </si>
-  <si>
-    <t>Month10</t>
-  </si>
-  <si>
-    <t>Month11</t>
-  </si>
-  <si>
-    <t>TxnId</t>
-  </si>
-  <si>
-    <t>PropertyName</t>
-  </si>
-  <si>
-    <t>PropertyId</t>
-  </si>
-  <si>
-    <t>PropertyAddress</t>
-  </si>
-  <si>
-    <t>PropertyStreet</t>
-  </si>
-  <si>
-    <t>PropertyStreet2</t>
-  </si>
-  <si>
-    <t>PropertyCity</t>
-  </si>
-  <si>
-    <t>PropertyState</t>
-  </si>
-  <si>
-    <t>PropertyZip</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>property_group_directory</t>
   </si>
   <si>
     <t>GlAccountId</t>
   </si>
   <si>
-    <t>TenantId</t>
-  </si>
-  <si>
-    <t>OccupancyId</t>
+    <t>ShippedTo</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>UpdatedAt</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>unit_id</t>
+  </si>
+  <si>
+    <t>PurchaseOrderId</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>WorkOrders</t>
+  </si>
+  <si>
+    <t>RevisionInstructions</t>
+  </si>
+  <si>
+    <t>RevisionAssignee</t>
+  </si>
+  <si>
+    <t>RevisionRequester</t>
+  </si>
+  <si>
+    <t>RevisionRequestedDate</t>
+  </si>
+  <si>
+    <t>RevisionCompletedDate</t>
   </si>
 </sst>
 </file>
@@ -151,14 +97,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
     </border>
     <border>
       <left style="thin">
@@ -168,11 +106,19 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -182,10 +128,13 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -418,62 +367,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -483,112 +432,151 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="3"/>
+      <c r="A34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="3"/>
+      <c r="A35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="3"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="3"/>
+      <c r="A37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/ddt/my1.xlsx
+++ b/ddt/my1.xlsx
@@ -11,51 +11,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>property_group_directory</t>
-  </si>
-  <si>
-    <t>GlAccountId</t>
-  </si>
-  <si>
-    <t>ShippedTo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>rental_applications</t>
+  </si>
+  <si>
+    <t>Applicants</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>DesiredMoveIn</t>
+  </si>
+  <si>
+    <t>LeadSource</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Screening</t>
+  </si>
+  <si>
+    <t>AssignedUserId</t>
   </si>
   <si>
     <t>CreatedBy</t>
   </si>
   <si>
-    <t>UpdatedAt</t>
-  </si>
-  <si>
-    <t>Canceled</t>
-  </si>
-  <si>
-    <t>unit_id</t>
-  </si>
-  <si>
-    <t>PurchaseOrderId</t>
-  </si>
-  <si>
-    <t>Instructions</t>
-  </si>
-  <si>
-    <t>WorkOrders</t>
-  </si>
-  <si>
-    <t>RevisionInstructions</t>
-  </si>
-  <si>
-    <t>RevisionAssignee</t>
-  </si>
-  <si>
-    <t>RevisionRequester</t>
-  </si>
-  <si>
-    <t>RevisionRequestedDate</t>
-  </si>
-  <si>
-    <t>RevisionCompletedDate</t>
+    <t>ReasonForStatus</t>
+  </si>
+  <si>
+    <t>UnitTitle</t>
+  </si>
+  <si>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+  </si>
+  <si>
+    <t>UnitName</t>
+  </si>
+  <si>
+    <t>CampaignTitle</t>
+  </si>
+  <si>
+    <t>ApplyingFor</t>
+  </si>
+  <si>
+    <t>AssignedUser</t>
+  </si>
+  <si>
+    <t>ApplicantReportedSource</t>
+  </si>
+  <si>
+    <t>ApprovedAt</t>
+  </si>
+  <si>
+    <t>DeniedAt</t>
+  </si>
+  <si>
+    <t>CanceledAt</t>
+  </si>
+  <si>
+    <t>ApplicationFeePaid</t>
+  </si>
+  <si>
+    <t>RentalApplicationId</t>
+  </si>
+  <si>
+    <t>RentalApplicationGroupId</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>CurrentAddress1</t>
+  </si>
+  <si>
+    <t>CurrentAddress2</t>
+  </si>
+  <si>
+    <t>CurrentCity</t>
+  </si>
+  <si>
+    <t>CurrentState</t>
+  </si>
+  <si>
+    <t>CurrentZip</t>
+  </si>
+  <si>
+    <t>CurrentMonthlyRent</t>
+  </si>
+  <si>
+    <t>ResidedFrom</t>
+  </si>
+  <si>
+    <t>ResidedTo</t>
+  </si>
+  <si>
+    <t>LandlordName</t>
+  </si>
+  <si>
+    <t>LandlordPhoneNumber</t>
+  </si>
+  <si>
+    <t>LandlordEmail</t>
+  </si>
+  <si>
+    <t>Previous1Address1</t>
+  </si>
+  <si>
+    <t>Previous1Address2</t>
+  </si>
+  <si>
+    <t>PreviousCity1</t>
+  </si>
+  <si>
+    <t>PreviousState1</t>
+  </si>
+  <si>
+    <t>PreviousZip1</t>
+  </si>
+  <si>
+    <t>PreviousMonthlyRent1</t>
+  </si>
+  <si>
+    <t>PreviousResidedFrom1</t>
+  </si>
+  <si>
+    <t>PreviousResidedTo1</t>
+  </si>
+  <si>
+    <t>PreviousLandlordName1</t>
+  </si>
+  <si>
+    <t>PreviousLandlordPhoneNumber1</t>
+  </si>
+  <si>
+    <t>PreviousLandlordEmail1</t>
+  </si>
+  <si>
+    <t>Previous2Address1</t>
   </si>
 </sst>
 </file>
@@ -97,6 +199,14 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
     </border>
     <border>
       <left style="thin">
@@ -105,14 +215,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -128,13 +230,13 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -367,62 +469,62 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -432,151 +534,258 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="5"/>
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
+      <c r="A40" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
+      <c r="A41" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
+      <c r="A42" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
+      <c r="A43" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
+      <c r="A44" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
+      <c r="A47" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
+      <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
+      <c r="A49" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="2"/>
+      <c r="A50" s="4"/>
     </row>
     <row r="51">
-      <c r="A51" s="2"/>
+      <c r="A51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
+      <c r="A52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
+      <c r="A53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
+      <c r="A54" s="4"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
+      <c r="A55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
+      <c r="A57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
+      <c r="A58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
+      <c r="A59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
+      <c r="A60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
+      <c r="A61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
+      <c r="A62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
+      <c r="A63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="3"/>
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/ddt/my1.xlsx
+++ b/ddt/my1.xlsx
@@ -11,153 +11,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>rental_applications</t>
-  </si>
-  <si>
-    <t>Applicants</t>
-  </si>
-  <si>
-    <t>Received</t>
-  </si>
-  <si>
-    <t>DesiredMoveIn</t>
-  </si>
-  <si>
-    <t>LeadSource</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>upcoming_activities</t>
+  </si>
+  <si>
+    <t>ActivityDate</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>ActivityFor</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>AssignedUser</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+  </si>
+  <si>
+    <t>PropertyId</t>
+  </si>
+  <si>
+    <t>PropertyAddress</t>
+  </si>
+  <si>
+    <t>PropertyStreet1</t>
+  </si>
+  <si>
+    <t>PropertyStreet2</t>
+  </si>
+  <si>
+    <t>PropertyCity</t>
+  </si>
+  <si>
+    <t>PropertyState</t>
+  </si>
+  <si>
+    <t>PropertyZip</t>
+  </si>
+  <si>
+    <t>UnitAddress</t>
+  </si>
+  <si>
+    <t>UnitStreet</t>
+  </si>
+  <si>
+    <t>UnitStreet2</t>
+  </si>
+  <si>
+    <t>UnitCity</t>
+  </si>
+  <si>
+    <t>UnitState</t>
+  </si>
+  <si>
+    <t>UnitZip</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>CompletedBy</t>
+  </si>
+  <si>
+    <t>LastEditedBy</t>
+  </si>
+  <si>
+    <t>CreatedOn</t>
+  </si>
+  <si>
+    <t>CompletedOn</t>
+  </si>
+  <si>
+    <t>LastEditedOn</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Screening</t>
-  </si>
-  <si>
-    <t>AssignedUserId</t>
-  </si>
-  <si>
-    <t>CreatedBy</t>
-  </si>
-  <si>
-    <t>ReasonForStatus</t>
-  </si>
-  <si>
-    <t>UnitTitle</t>
-  </si>
-  <si>
-    <t>UnitType</t>
-  </si>
-  <si>
-    <t>PropertyName</t>
-  </si>
-  <si>
-    <t>UnitName</t>
-  </si>
-  <si>
-    <t>CampaignTitle</t>
-  </si>
-  <si>
-    <t>ApplyingFor</t>
-  </si>
-  <si>
-    <t>AssignedUser</t>
-  </si>
-  <si>
-    <t>ApplicantReportedSource</t>
-  </si>
-  <si>
-    <t>ApprovedAt</t>
-  </si>
-  <si>
-    <t>DeniedAt</t>
-  </si>
-  <si>
-    <t>CanceledAt</t>
-  </si>
-  <si>
-    <t>ApplicationFeePaid</t>
-  </si>
-  <si>
-    <t>RentalApplicationId</t>
-  </si>
-  <si>
-    <t>RentalApplicationGroupId</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-  </si>
-  <si>
-    <t>CurrentAddress1</t>
-  </si>
-  <si>
-    <t>CurrentAddress2</t>
-  </si>
-  <si>
-    <t>CurrentCity</t>
-  </si>
-  <si>
-    <t>CurrentState</t>
-  </si>
-  <si>
-    <t>CurrentZip</t>
-  </si>
-  <si>
-    <t>CurrentMonthlyRent</t>
-  </si>
-  <si>
-    <t>ResidedFrom</t>
-  </si>
-  <si>
-    <t>ResidedTo</t>
-  </si>
-  <si>
-    <t>LandlordName</t>
-  </si>
-  <si>
-    <t>LandlordPhoneNumber</t>
-  </si>
-  <si>
-    <t>LandlordEmail</t>
-  </si>
-  <si>
-    <t>Previous1Address1</t>
-  </si>
-  <si>
-    <t>Previous1Address2</t>
-  </si>
-  <si>
-    <t>PreviousCity1</t>
-  </si>
-  <si>
-    <t>PreviousState1</t>
-  </si>
-  <si>
-    <t>PreviousZip1</t>
-  </si>
-  <si>
-    <t>PreviousMonthlyRent1</t>
-  </si>
-  <si>
-    <t>PreviousResidedFrom1</t>
-  </si>
-  <si>
-    <t>PreviousResidedTo1</t>
-  </si>
-  <si>
-    <t>PreviousLandlordName1</t>
-  </si>
-  <si>
-    <t>PreviousLandlordPhoneNumber1</t>
-  </si>
-  <si>
-    <t>PreviousLandlordEmail1</t>
-  </si>
-  <si>
-    <t>Previous2Address1</t>
+    <t>UnitId</t>
+  </si>
+  <si>
+    <t>OccupancyId</t>
+  </si>
+  <si>
+    <t>OwnerId</t>
   </si>
 </sst>
 </file>
@@ -172,9 +118,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -185,12 +130,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -220,17 +171,23 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -519,7 +476,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -609,183 +566,153 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="A33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A34" s="6"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="6"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A36" s="6"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A38" s="6"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="A39" s="6"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A40" s="6"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A41" s="6"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="A42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A43" s="6"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A45" s="7"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="A46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A48" s="6"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="A49" s="6"/>
     </row>
     <row r="50">
-      <c r="A50" s="4"/>
+      <c r="A50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="4"/>
+      <c r="A51" s="6"/>
     </row>
     <row r="52">
-      <c r="A52" s="4"/>
+      <c r="A52" s="6"/>
     </row>
     <row r="53">
-      <c r="A53" s="4"/>
+      <c r="A53" s="6"/>
     </row>
     <row r="54">
-      <c r="A54" s="4"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55">
-      <c r="A55" s="4"/>
+      <c r="A55" s="6"/>
     </row>
     <row r="56">
-      <c r="A56" s="4"/>
+      <c r="A56" s="6"/>
     </row>
     <row r="57">
-      <c r="A57" s="4"/>
+      <c r="A57" s="6"/>
     </row>
     <row r="58">
-      <c r="A58" s="4"/>
+      <c r="A58" s="6"/>
     </row>
     <row r="59">
-      <c r="A59" s="4"/>
+      <c r="A59" s="6"/>
     </row>
     <row r="60">
-      <c r="A60" s="4"/>
+      <c r="A60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="4"/>
+      <c r="A61" s="6"/>
     </row>
     <row r="62">
-      <c r="A62" s="4"/>
+      <c r="A62" s="6"/>
     </row>
     <row r="63">
-      <c r="A63" s="4"/>
+      <c r="A63" s="6"/>
     </row>
     <row r="64">
-      <c r="A64" s="4"/>
+      <c r="A64" s="6"/>
     </row>
     <row r="65">
-      <c r="A65" s="4"/>
+      <c r="A65" s="6"/>
     </row>
     <row r="66">
-      <c r="A66" s="4"/>
+      <c r="A66" s="6"/>
     </row>
     <row r="67">
-      <c r="A67" s="4"/>
+      <c r="A67" s="6"/>
     </row>
     <row r="68">
-      <c r="A68" s="4"/>
+      <c r="A68" s="6"/>
     </row>
     <row r="69">
-      <c r="A69" s="4"/>
+      <c r="A69" s="6"/>
     </row>
     <row r="70">
-      <c r="A70" s="4"/>
+      <c r="A70" s="6"/>
     </row>
     <row r="71">
-      <c r="A71" s="4"/>
+      <c r="A71" s="6"/>
     </row>
     <row r="72">
-      <c r="A72" s="4"/>
+      <c r="A72" s="6"/>
     </row>
     <row r="73">
-      <c r="A73" s="4"/>
+      <c r="A73" s="6"/>
     </row>
     <row r="74">
-      <c r="A74" s="4"/>
+      <c r="A74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="4"/>
+      <c r="A75" s="6"/>
     </row>
     <row r="76">
-      <c r="A76" s="4"/>
+      <c r="A76" s="6"/>
     </row>
     <row r="77">
-      <c r="A77" s="5"/>
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
